--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,44</t>
+          <t>12,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>208,81%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-38,55%</t>
+          <t>157,46%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-38,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 10,22</t>
+          <t>-5,92; 10,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 21,7</t>
+          <t>4,05; 20,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 9,5</t>
+          <t>-5,48; 9,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 1,96</t>
+          <t>-8,94; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 120,92</t>
+          <t>-20,49; 1,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,91; 608,01</t>
+          <t>-10,48; 11,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 172,37</t>
+          <t>-37,58; 136,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 13,41</t>
+          <t>20,85; 501,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-37,68; 164,91</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-58,54; 115,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-68,18; 11,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; 96,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 14,6</t>
+          <t>-8,48; 15,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 9,99</t>
+          <t>-7,0; 10,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 15,39</t>
+          <t>-3,64; 16,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 13,22</t>
+          <t>-2,22; 19,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 71,43</t>
+          <t>-8,95; 14,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 44,03</t>
+          <t>-11,56; 12,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 81,08</t>
+          <t>-25,69; 71,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 57,15</t>
+          <t>-21,65; 47,48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 84,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 144,48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,27; 66,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,02; 45,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,57%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>-26,86%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-31,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-13,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29,92%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 8,75</t>
+          <t>-9,86; 7,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 0,4</t>
+          <t>-14,8; -0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -0,02</t>
+          <t>-17,59; -0,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 15,11</t>
+          <t>-12,08; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 60,04</t>
+          <t>-1,14; 15,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 3,0</t>
+          <t>-7,36; 10,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 1,26</t>
+          <t>-35,89; 49,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 79,72</t>
+          <t>-50,68; -1,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-51,65; -1,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 25,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 89,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 56,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>-4,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-4,28%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 12,02</t>
+          <t>-4,4; 9,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 6,4</t>
+          <t>-8,0; 5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,87</t>
+          <t>-6,51; 4,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 11,3</t>
+          <t>-10,54; 2,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 112,67</t>
+          <t>-8,37; 9,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 47,38</t>
+          <t>-5,42; 10,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 53,03</t>
+          <t>-24,39; 87,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 52,58</t>
+          <t>-36,87; 42,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 44,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-48,92; 16,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 44,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; 61,59</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-2,45</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,23%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-12,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 10,65</t>
+          <t>-5,6; 9,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 12,35</t>
+          <t>-3,56; 11,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 10,41</t>
+          <t>-4,76; 10,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 6,65</t>
+          <t>-5,02; 13,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 84,77</t>
+          <t>-11,73; 7,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 95,2</t>
+          <t>-12,26; 5,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 80,15</t>
+          <t>-29,61; 81,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 29,72</t>
+          <t>-17,71; 81,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-22,65; 79,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; 106,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-33,32; 31,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-37,31; 24,51</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-13,76</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,43%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,78%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-44,38%</t>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-8,22%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-44,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-23,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 11,62</t>
+          <t>-4,33; 14,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 6,78</t>
+          <t>-10,75; 6,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 4,46</t>
+          <t>-11,1; 7,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -2,5</t>
+          <t>-7,43; 14,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 97,61</t>
+          <t>-25,4; -3,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 50,42</t>
+          <t>-17,37; 3,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 25,83</t>
+          <t>-20,44; 129,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,81; -9,09</t>
+          <t>-42,3; 42,47</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,42; 43,42</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,17; 82,63</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-66,85; -11,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-50,37; 15,68</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-2,2</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,22%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-8,22%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,47</t>
+          <t>-1,0; 6,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,57</t>
+          <t>-2,24; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,06</t>
+          <t>-3,63; 3,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,87</t>
+          <t>-2,25; 5,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 41,74</t>
+          <t>-6,67; 1,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 26,9</t>
+          <t>-4,85; 3,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 17,93</t>
+          <t>-4,87; 39,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 8,01</t>
+          <t>-10,57; 24,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,64; 19,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 30,91</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 6,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-16,95; 12,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
